--- a/excel/vgl2sp.xlsx
+++ b/excel/vgl2sp.xlsx
@@ -440,252 +440,252 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2794.957806419167</v>
+        <v>1524.559787515178</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.451687088320286</v>
+        <v>18.85773550350129</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.061116440389662</v>
+        <v>-4.606485423030364</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>836.509721472427</v>
+        <v>515.5836231181074</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-100.8078051510297</v>
+        <v>-125.6783140067378</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>53.55296981450506</v>
+        <v>61.70071095011096</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10.40626741534403</v>
+        <v>18.73476775081001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-3.928061950294421</v>
+        <v>-3.331969042429131</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6980.968322062863</v>
+        <v>2463.97012378321</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>55.66438913660876</v>
+        <v>95.04864964497393</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>56.21264916777325</v>
+        <v>91.2892011726602</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-56.40754198851121</v>
+        <v>28.50483521294482</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>26.25500808314911</v>
+        <v>30.68213896741712</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.3928246275812546</v>
+        <v>15.25836390418262</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15.97365466576176</v>
+        <v>21.59938650564457</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>175.8931062414676</v>
+        <v>222.1607528758696</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-13.18929478930554</v>
+        <v>579.3703676280294</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>10.85153694458604</v>
+        <v>14.30709072501494</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>12.05274484400243</v>
+        <v>14.60627010162044</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20.86637337832453</v>
+        <v>30.69499058668686</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-1.432200971719379</v>
+        <v>26.30858005586781</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>10.65808076150128</v>
+        <v>16.15563535246146</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23.45695048660741</v>
+        <v>31.53643704409581</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>12.05443806662854</v>
+        <v>29.15119035981384</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111.8796228035672</v>
+        <v>946.2876309537694</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>7.367752722366026</v>
+        <v>20.99388474946556</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>8.45422093937726</v>
+        <v>13.55743664284051</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>27.68377088762647</v>
+        <v>33.77190675763819</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>75.99980962084609</v>
+        <v>72.63812946899171</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2000.835619881425</v>
+        <v>723.1915112444258</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6.995562367305678</v>
+        <v>8.375260248096216</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>414.7445854763171</v>
+        <v>1155.532985395288</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>30.91615459497397</v>
+        <v>38.75928189586053</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-2722.238389642845</v>
+        <v>-570.8861370404168</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>17.79956362256852</v>
+        <v>22.56052700219344</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5.862173841067257</v>
+        <v>15.54991494757741</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5.646597624198347</v>
+        <v>9.648415189946235</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>11.48013021240799</v>
+        <v>8.380748073246625</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>11.63463277023724</v>
+        <v>12.40265838858838</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>30.56874552333228</v>
+        <v>41.52895232614878</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>153.8271061673167</v>
+        <v>148.6380787461043</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>43.2905650150234</v>
+        <v>55.54377354296337</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>12.64246923075272</v>
+        <v>13.22001990697599</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>10.22433355253392</v>
+        <v>13.49897854194937</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6.345951973527894</v>
+        <v>10.74830636636809</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>9.261942727697122</v>
+        <v>15.94552450359516</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>22.5248303008075</v>
+        <v>27.90811917234925</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>7.469276924449752</v>
+        <v>25.73101789816848</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>22.39650134088784</v>
+        <v>24.58213047199648</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>9.645463828639837</v>
+        <v>11.93877230255797</v>
       </c>
     </row>
   </sheetData>
